--- a/www/asso_donation_dulan.xlsx
+++ b/www/asso_donation_dulan.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Id_membre</t>
-  </si>
-  <si>
     <t>Prénom</t>
   </si>
   <si>
@@ -35,49 +32,22 @@
     <t>Date enregistrement</t>
   </si>
   <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:29:17</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:29:13</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:29:11</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:29:05</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:29:02</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:28:58</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:28:55</t>
-  </si>
-  <si>
-    <t>2019-04-24 16:28:53</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:48:34</t>
-  </si>
-  <si>
-    <t>Joelle</t>
-  </si>
-  <si>
-    <t>Aazzouz</t>
-  </si>
-  <si>
-    <t>2019-04-18 10:51:46</t>
-  </si>
-  <si>
-    <t>2019-04-17 12:16:30</t>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Numéro de reçu</t>
+  </si>
+  <si>
+    <t>celine</t>
+  </si>
+  <si>
+    <t>2019-06-20 15:05:06</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>R_2019_Dulan_1001_celine_celine</t>
   </si>
 </sst>
 </file>
@@ -416,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +394,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,215 +413,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>127</v>
-      </c>
-      <c r="B2">
-        <v>6311</v>
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>741</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>126</v>
-      </c>
-      <c r="B3">
-        <v>6311</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>4343</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>125</v>
-      </c>
-      <c r="B4">
-        <v>6311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>9688676</v>
-      </c>
-      <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>124</v>
-      </c>
-      <c r="B5">
-        <v>6311</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>9687</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>123</v>
-      </c>
-      <c r="B6">
-        <v>6311</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>4444</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>122</v>
-      </c>
-      <c r="B7">
-        <v>6311</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>3333</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>121</v>
-      </c>
-      <c r="B8">
-        <v>6311</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>2222</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>120</v>
-      </c>
-      <c r="B9">
-        <v>6311</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>119</v>
-      </c>
-      <c r="B10">
-        <v>6311</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>1333</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>101</v>
-      </c>
-      <c r="B11">
-        <v>6311</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>5343</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>1340</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>7777</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>88</v>
-      </c>
-      <c r="B13">
-        <v>1340</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>1233</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
